--- a/Shopclues Test Case.xlsx
+++ b/Shopclues Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Krish Compusoft Services Pvt Ltd\Desktop\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7705E995-9DD9-4FF0-86E5-215F84415AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD20E1-A8C3-4304-B817-09CF706D888F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7445BFA-7C2D-4BE1-A44F-C645E3DAF637}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="318">
   <si>
     <t xml:space="preserve">TC.NO
 </t>
@@ -425,13 +425,6 @@
 Step 5- Click on submit</t>
   </si>
   <si>
-    <t>Step 1- Go to login link
-Step 2- Enter Mobile no or email-Id
-Step 3- Login via OTP
-Step 4- Keep OTP blank
-Step 5- Click on submit</t>
-  </si>
-  <si>
     <t>Enter Mobile No - 9635463277 or
 Enter Email-ID - maya1616@gmail.com</t>
   </si>
@@ -475,13 +468,6 @@
     <t>Mobile no or Email-Id = "123456789"</t>
   </si>
   <si>
-    <t>Step 1- Go to login link
-Step 2- Enter Mobile no or email-Id
-Step 3- Login via OTP
-Step 4- Enter OTP with Special/junk character
-Step 5- Click on submit</t>
-  </si>
-  <si>
     <t>OTP = "123456"</t>
   </si>
   <si>
@@ -495,13 +481,6 @@
   </si>
   <si>
     <t>Verify when enter valid mobile no or valid email-Id and Invalid OTP</t>
-  </si>
-  <si>
-    <t>Step 1- Go to login link
-Step 2- Enter Mobile no or email-Id 
-Step 3- Login via OTP
-Step 4- Enter Invalid OTP
-Step 5- Click on submit</t>
   </si>
   <si>
     <t>OTP = "56658"</t>
@@ -1464,6 +1443,34 @@
   <si>
     <t>System should fire validation message for select Gender
 "Please select Gender"</t>
+  </si>
+  <si>
+    <t>Step 1- Go to login link
+Step 2- Enter Mobile no or email-Id 
+Step 3- Login via OTP
+Step 4- Enter Invalid OTP
+Step 5- Click on login</t>
+  </si>
+  <si>
+    <t>Step 1- Go to login link
+Step 2- Enter Mobile no or email-Id
+Step 3- Login via OTP
+Step 4- Keep OTP blank
+Step 5- Click on login</t>
+  </si>
+  <si>
+    <t>Step 1- Go to login link
+Step 2- Enter Mobile no or email-Id
+Step 3- Login via OTP
+Step 4- Enter OTP
+Step 5- Click on login</t>
+  </si>
+  <si>
+    <t>Step 1- Go to login link
+Step 2- Enter Mobile no or email-Id
+Step 3- Login via OTP
+Step 4- Enter OTP with Special/junk character
+Step 5- Click on login</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2173,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2251,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>84</v>
@@ -2283,7 +2290,7 @@
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2301,13 +2308,13 @@
         <v>90</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2328,10 +2335,10 @@
         <v>101</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2352,10 +2359,10 @@
         <v>100</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2376,10 +2383,10 @@
         <v>103</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2400,10 +2407,10 @@
         <v>104</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2423,10 +2430,10 @@
         <v>105</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -2446,10 +2453,10 @@
         <v>106</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -2466,13 +2473,13 @@
         <v>96</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2492,10 +2499,10 @@
         <v>107</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2515,10 +2522,10 @@
         <v>107</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2538,10 +2545,10 @@
         <v>108</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2558,13 +2565,13 @@
         <v>34</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -2582,13 +2589,13 @@
         <v>33</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2605,13 +2612,13 @@
         <v>35</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2628,13 +2635,13 @@
         <v>36</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>108</v>
+        <v>316</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2651,13 +2658,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>109</v>
+        <v>315</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2671,16 +2678,16 @@
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>130</v>
-      </c>
       <c r="I21" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2718,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="42" customFormat="1" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -2753,10 +2760,10 @@
         <v>83</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="43"/>
@@ -2775,10 +2782,10 @@
         <v>86</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="43"/>
@@ -2797,7 +2804,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>52</v>
@@ -2821,10 +2828,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>54</v>
@@ -2845,10 +2852,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>55</v>
@@ -2869,10 +2876,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I7" s="24" t="s">
         <v>39</v>
@@ -2893,10 +2900,10 @@
         <v>25</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>56</v>
@@ -2917,10 +2924,10 @@
         <v>26</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>57</v>
@@ -2941,13 +2948,13 @@
         <v>27</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J10" s="43"/>
     </row>
@@ -2965,13 +2972,13 @@
         <v>28</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J11" s="43"/>
     </row>
@@ -2989,13 +2996,13 @@
         <v>29</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J12" s="43"/>
     </row>
@@ -3013,7 +3020,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>52</v>
@@ -3035,7 +3042,7 @@
         <v>31</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>52</v>
@@ -3057,10 +3064,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="43"/>
@@ -3079,10 +3086,10 @@
         <v>34</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="43"/>
@@ -3098,16 +3105,16 @@
         <v>40</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J17" s="43"/>
     </row>
@@ -3125,10 +3132,10 @@
         <v>35</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="43"/>
@@ -3144,16 +3151,16 @@
         <v>40</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J19" s="43"/>
     </row>
@@ -3171,10 +3178,10 @@
         <v>41</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="43"/>
@@ -3190,13 +3197,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="43"/>
@@ -3215,10 +3222,10 @@
         <v>42</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="43"/>
@@ -3237,10 +3244,10 @@
         <v>43</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="43"/>
@@ -3259,13 +3266,13 @@
         <v>44</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J24" s="43"/>
     </row>
@@ -3283,13 +3290,13 @@
         <v>45</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J25" s="43"/>
     </row>
@@ -3307,10 +3314,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="43"/>
@@ -3329,10 +3336,10 @@
         <v>47</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="43"/>
@@ -3348,16 +3355,16 @@
         <v>40</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J28" s="43"/>
     </row>
@@ -3375,13 +3382,13 @@
         <v>48</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J29" s="43"/>
     </row>
@@ -3399,10 +3406,10 @@
         <v>49</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I30" s="24"/>
       <c r="J30" s="43"/>
@@ -3421,10 +3428,10 @@
         <v>50</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="43"/>
@@ -3443,13 +3450,13 @@
         <v>51</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J32" s="43"/>
     </row>
@@ -3599,17 +3606,17 @@
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="60"/>
       <c r="I2" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="58" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
@@ -3625,14 +3632,14 @@
         <v>86</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="60"/>
       <c r="I3" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="54" x14ac:dyDescent="0.3">
@@ -3650,14 +3657,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="50" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.3">
@@ -3672,17 +3679,17 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="108" x14ac:dyDescent="0.3">
@@ -3697,17 +3704,17 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="108" x14ac:dyDescent="0.3">
@@ -3722,10 +3729,10 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -3747,17 +3754,17 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="108" x14ac:dyDescent="0.3">
@@ -3772,10 +3779,10 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
@@ -3797,13 +3804,13 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="5" t="s">
@@ -3822,13 +3829,13 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="5" t="s">
@@ -3847,13 +3854,13 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="5" t="s">
@@ -3872,20 +3879,20 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.3">
@@ -3900,18 +3907,18 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="5"/>
       <c r="J14" s="57" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.3">
@@ -3926,13 +3933,13 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="5"/>
@@ -3952,14 +3959,14 @@
         <v>12</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="108" x14ac:dyDescent="0.3">
@@ -3974,13 +3981,13 @@
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H17" s="62"/>
       <c r="I17" s="54"/>
@@ -3997,17 +4004,17 @@
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4092,7 +4099,7 @@
         <v>59</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>82</v>
@@ -4116,10 +4123,10 @@
         <v>60</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>74</v>
@@ -4139,10 +4146,10 @@
         <v>61</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>75</v>
@@ -4162,10 +4169,10 @@
         <v>62</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>76</v>
@@ -4185,10 +4192,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>77</v>
@@ -4208,10 +4215,10 @@
         <v>64</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>78</v>
@@ -4231,10 +4238,10 @@
         <v>65</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>76</v>
@@ -4254,10 +4261,10 @@
         <v>66</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>79</v>
@@ -4277,10 +4284,10 @@
         <v>67</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>80</v>
@@ -4300,13 +4307,13 @@
         <v>68</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4323,13 +4330,13 @@
         <v>69</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4346,13 +4353,13 @@
         <v>70</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4369,13 +4376,13 @@
         <v>71</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4392,10 +4399,10 @@
         <v>61</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>81</v>
@@ -4412,16 +4419,16 @@
         <v>58</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
@@ -4438,13 +4445,13 @@
         <v>72</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="124.8" x14ac:dyDescent="0.3">
@@ -4458,10 +4465,10 @@
         <v>58</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>82</v>
@@ -4478,13 +4485,13 @@
         <v>58</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -4498,16 +4505,16 @@
         <v>58</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -4521,13 +4528,13 @@
         <v>58</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -4541,16 +4548,16 @@
         <v>58</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
@@ -4564,16 +4571,16 @@
         <v>58</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="156" x14ac:dyDescent="0.3">
@@ -4587,16 +4594,16 @@
         <v>58</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="156" x14ac:dyDescent="0.3">
@@ -4610,16 +4617,16 @@
         <v>58</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
